--- a/DMSNewVSale_2025-11-04_20-26.xlsx
+++ b/DMSNewVSale_2025-11-04_20-26.xlsx
@@ -293,6 +293,18 @@
     <t>57.4200</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -315,9 +327,6 @@
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>36.00</t>
   </si>
   <si>
     <t>36.0000</t>
@@ -2306,7 +2315,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2316,11 +2325,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>22</v>
@@ -2332,14 +2341,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2372,7 +2381,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2382,14 +2391,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2398,14 +2407,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2415,7 +2424,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2471,7 +2480,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2481,14 +2490,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2514,14 +2523,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2530,14 +2539,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2547,14 +2556,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2563,14 +2572,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2580,11 +2589,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>15</v>
@@ -2596,7 +2605,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2613,14 +2622,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2636,7 +2645,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2653,7 +2662,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2702,7 +2711,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,7 +2744,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2752,7 +2761,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2768,7 +2777,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2801,7 +2810,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2811,11 +2820,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>15</v>
@@ -2827,14 +2836,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2844,14 +2853,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2860,31 +2869,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2900,13 +2909,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2950,7 +2959,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2966,7 +2975,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2976,14 +2985,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2992,14 +3001,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3009,11 +3018,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>15</v>
@@ -3025,31 +3034,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3065,13 +3074,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3098,7 +3107,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3164,7 +3173,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3181,7 +3190,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3197,24 +3206,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>88</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3223,20 +3232,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3247,7 +3256,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3263,7 +3272,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3277,10 +3286,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3289,14 +3298,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3310,10 +3319,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>67</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3322,14 +3331,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3339,14 +3348,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>23</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3355,14 +3364,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3372,14 +3381,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3388,14 +3397,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3405,14 +3414,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3428,7 +3437,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3438,11 +3447,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>22</v>
@@ -3454,14 +3463,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3471,14 +3480,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3487,14 +3496,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3511,7 +3520,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3527,7 +3536,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3544,7 +3553,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3560,7 +3569,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3577,7 +3586,7 @@
         <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>49</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3593,7 +3602,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>20</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3603,14 +3612,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>84</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3619,20 +3628,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3643,7 +3652,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3659,24 +3668,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>15</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>133</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3685,14 +3694,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3702,14 +3711,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3718,14 +3727,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,7 +3767,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3791,7 +3800,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3824,7 +3833,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3841,7 +3850,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3890,7 +3899,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3900,11 +3909,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>22</v>
@@ -3916,14 +3925,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3933,14 +3942,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>167</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3949,14 +3958,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3966,11 +3975,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>15</v>
@@ -3989,7 +3998,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3999,14 +4008,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4015,14 +4024,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4032,11 +4041,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -4055,7 +4064,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4069,10 +4078,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>84</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4081,14 +4090,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4102,10 +4111,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4114,14 +4123,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4131,14 +4140,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4147,14 +4156,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4164,11 +4173,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>15</v>
@@ -4180,31 +4189,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>258</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4213,14 +4222,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4230,14 +4239,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>261</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>15</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4253,7 +4262,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>15</v>
+        <v>263</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4263,7 +4272,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4286,7 +4295,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4300,10 +4309,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>258</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4312,7 +4321,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4329,14 +4338,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4366,10 +4375,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>178</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4378,14 +4387,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>273</v>
+        <v>17</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4399,10 +4408,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>70</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4418,7 +4427,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4428,14 +4437,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4451,7 +4460,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4461,11 +4470,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>15</v>
@@ -4477,14 +4486,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>235</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4494,11 +4503,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>15</v>
@@ -4510,14 +4519,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>70</v>
+        <v>238</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4527,11 +4536,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>15</v>
@@ -4543,14 +4552,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4560,11 +4569,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>15</v>
@@ -4576,7 +4585,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4593,14 +4602,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>13</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>67</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4609,14 +4618,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4626,14 +4635,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>13</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4642,14 +4651,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4659,11 +4668,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>15</v>
@@ -4675,14 +4684,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4692,51 +4701,84 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>133</v>
+        <v>294</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>15</v>
       </c>
     </row>
-    <row r="103" ht="25.5" customHeight="1">
-      <c r="N103" s="13">
-        <v>6094.8275000000003</v>
-      </c>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>295</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>296</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
         <v>297</v>
       </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>29</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>136</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" ht="26.25" customHeight="1">
+      <c r="N104" s="13">
+        <v>6106.7075000000004</v>
+      </c>
+      <c r="O104" s="13"/>
+      <c r="P104" s="13"/>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>298</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>299</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>300</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5225,10 +5267,15 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="N104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
